--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1040200.494156838</v>
+        <v>-1042759.764724394</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>324.6341729084809</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842624</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>121.1604935150333</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349998</v>
+        <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736456</v>
+        <v>9.512185486736385</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.5862749777979</v>
+        <v>128.5862749777978</v>
       </c>
       <c r="T3" t="n">
         <v>190.8126513536573</v>
@@ -832,10 +832,10 @@
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004823</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104688</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>182.9815793570024</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>44.28841796604908</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>252.7493895559485</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>187.1651269459771</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>128.7527215155474</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>113.1212662182209</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6667577510682849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>177.2979137777586</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>65.07371532803305</v>
+        <v>199.3654827743561</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187884</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>13.79222725775231</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>30.87238256912046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.53134576113727</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>104.3471808964298</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>15.09910835322162</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>166.0820601387214</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795608</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8913819999783</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428135</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526172</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.355433226731</v>
+        <v>2302.589958911118</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.39291628632</v>
+        <v>1933.627441970707</v>
       </c>
       <c r="D2" t="n">
-        <v>779.127217679569</v>
+        <v>1575.361743363956</v>
       </c>
       <c r="E2" t="n">
-        <v>393.3389650813247</v>
+        <v>1189.573490765712</v>
       </c>
       <c r="F2" t="n">
-        <v>393.3389650813247</v>
+        <v>778.5875859761042</v>
       </c>
       <c r="G2" t="n">
-        <v>65.42565911316223</v>
+        <v>363.470134036005</v>
       </c>
       <c r="H2" t="n">
-        <v>65.42565911316223</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316223</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725623</v>
+        <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183936</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887443</v>
+        <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064179</v>
+        <v>1548.631370064182</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746176</v>
+        <v>2087.54019874618</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767911</v>
+        <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.5130953038</v>
+        <v>2971.513095303805</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478300996</v>
+        <v>3215.036478301002</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658111</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007341</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077307</v>
+        <v>3065.108212728083</v>
       </c>
       <c r="U2" t="n">
-        <v>2953.792066077307</v>
+        <v>2811.574135859112</v>
       </c>
       <c r="V2" t="n">
-        <v>2622.729178733737</v>
+        <v>2811.574135859112</v>
       </c>
       <c r="W2" t="n">
-        <v>2269.960523463623</v>
+        <v>2811.574135859112</v>
       </c>
       <c r="X2" t="n">
-        <v>1896.494765202543</v>
+        <v>2811.574135859112</v>
       </c>
       <c r="Y2" t="n">
-        <v>1506.355433226731</v>
+        <v>2689.18979897524</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841081</v>
+        <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158289</v>
+        <v>75.03392728158295</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316223</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056102</v>
+        <v>156.8733478056105</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794813</v>
+        <v>391.3268380794819</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656264</v>
+        <v>752.9010302656275</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366256</v>
+        <v>1194.197926366258</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.58328310252</v>
+        <v>1661.583283102522</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.92977817638</v>
+        <v>2066.929778176383</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.923010208135</v>
+        <v>2400.597029664691</v>
       </c>
       <c r="Q3" t="n">
-        <v>2527.552185906361</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="R3" t="n">
         <v>2555.226205362918</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.333939139359</v>
+        <v>847.0045454105417</v>
       </c>
       <c r="C4" t="n">
-        <v>922.3977562114517</v>
+        <v>678.0683624826347</v>
       </c>
       <c r="D4" t="n">
-        <v>772.2811167991159</v>
+        <v>527.951723070299</v>
       </c>
       <c r="E4" t="n">
-        <v>624.3680232167228</v>
+        <v>380.0386294879058</v>
       </c>
       <c r="F4" t="n">
-        <v>477.4780757188126</v>
+        <v>233.1486819899955</v>
       </c>
       <c r="G4" t="n">
-        <v>309.7550528419795</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="H4" t="n">
-        <v>163.3583919324015</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316223</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182613</v>
+        <v>109.1495242182615</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401516</v>
+        <v>310.8381027401521</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039115</v>
+        <v>624.4564789039122</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220426</v>
+        <v>965.5122071220435</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842034</v>
+        <v>1303.893008842035</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235783</v>
+        <v>1600.426152235784</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.64080186376</v>
+        <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149532</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.594412149532</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="S4" t="n">
-        <v>1906.594412149532</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="T4" t="n">
-        <v>1906.594412149532</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="U4" t="n">
-        <v>1721.764534011146</v>
+        <v>1617.490444206911</v>
       </c>
       <c r="V4" t="n">
-        <v>1721.764534011146</v>
+        <v>1362.805956001024</v>
       </c>
       <c r="W4" t="n">
-        <v>1721.764534011146</v>
+        <v>1073.388785964063</v>
       </c>
       <c r="X4" t="n">
-        <v>1493.774983113128</v>
+        <v>1028.653010240781</v>
       </c>
       <c r="Y4" t="n">
-        <v>1272.982403969598</v>
+        <v>1028.653010240781</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820606</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1518.851284880194</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1160.585586273444</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>774.7973336751995</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>363.811428885592</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820606</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>809.1878876062121</v>
+        <v>890.2616555050635</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>721.3254725771566</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>571.2088331648208</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>571.2088331648208</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>424.3188856669104</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4759,16 @@
         <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>809.1878876062121</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>809.1878876062121</v>
+        <v>1071.910120335303</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>702.670267143434</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>287.5978169884305</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612892</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351812</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.840931351812</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1358.280565658501</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W10" t="n">
-        <v>1068.863395621541</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.863395621541</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057243</v>
+        <v>931.4710609784062</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778174</v>
+        <v>762.5348780504993</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381635</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557704</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.61519755786</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2213.430075918603</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>931.4710609784062</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,31 +5294,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711973</v>
+        <v>696.7084350851673</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>527.7722521572604</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1872.059887685832</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.375399479945</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.958229442984</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.968678544967</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.176099401437</v>
+        <v>878.356899915407</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.1291986799072</v>
+        <v>803.2707707770313</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X19" t="n">
-        <v>1043.570242653677</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y19" t="n">
-        <v>822.7776635101469</v>
+        <v>984.919235607271</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111696</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5841,7 +5841,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490404</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,34 +6397,34 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138418</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y28" t="n">
         <v>753.3092412490405</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400716</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400716</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310025</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,19 +6710,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,16 +6771,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,34 +6853,34 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7336,10 +7336,10 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,31 +7555,31 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500661981</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.57646828340346</v>
+        <v>1.622913276780281</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>86.33210451221719</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962375</v>
+        <v>43.2945117796236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>265.0774451410203</v>
       </c>
     </row>
     <row r="3">
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.830723471637</v>
+        <v>89.83072347163693</v>
       </c>
       <c r="S4" t="n">
         <v>190.1172987294701</v>
@@ -22759,19 +22759,19 @@
         <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>103.2313489061942</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>181.4212374229881</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462181</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.2340587438923</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>221.2652607547075</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>181.8372934928143</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1477127454062</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>59.62759525031575</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194147</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>41.54258064659086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194253</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1025945.298379854</v>
+        <v>1025945.298379855</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943217</v>
+        <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26323,37 +26323,37 @@
         <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
-        <v>201786.6499225017</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="O2" t="n">
         <v>205260.4424660709</v>
       </c>
-      <c r="O2" t="n">
-        <v>205260.4424660708</v>
-      </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081206</v>
+        <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074714</v>
+        <v>14479.05232074572</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125527</v>
+        <v>213977.8894125529</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841023107</v>
+        <v>3495.241841022639</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11046.00124731563</v>
+        <v>11046.00124731557</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813254</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813246</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813255</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26436,28 +26436,28 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987463</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987465</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="O4" t="n">
+        <v>18547.94754987467</v>
+      </c>
+      <c r="P4" t="n">
         <v>18547.94754987468</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18547.94754987466</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031115</v>
+        <v>106866.6399031116</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1262175.033337311</v>
+        <v>-1262535.11635303</v>
       </c>
       <c r="C6" t="n">
-        <v>-6896.673474202151</v>
+        <v>-6896.673474200739</v>
       </c>
       <c r="D6" t="n">
-        <v>7582.378846545136</v>
+        <v>7582.378846545049</v>
       </c>
       <c r="E6" t="n">
-        <v>-235305.4299955424</v>
+        <v>-235340.1679209778</v>
       </c>
       <c r="F6" t="n">
-        <v>90107.03181181333</v>
+        <v>90072.29388637771</v>
       </c>
       <c r="G6" t="n">
-        <v>90107.0318118132</v>
+        <v>90072.29388637753</v>
       </c>
       <c r="H6" t="n">
-        <v>90107.03181181317</v>
+        <v>90072.29388637753</v>
       </c>
       <c r="I6" t="n">
-        <v>90107.03181181314</v>
+        <v>90072.29388637742</v>
       </c>
       <c r="J6" t="n">
-        <v>-123870.8576007395</v>
+        <v>-123905.5955261754</v>
       </c>
       <c r="K6" t="n">
-        <v>86611.78997079002</v>
+        <v>86577.05204535488</v>
       </c>
       <c r="L6" t="n">
-        <v>64120.66106864919</v>
+        <v>64120.66106864909</v>
       </c>
       <c r="M6" t="n">
-        <v>-1506.648873231141</v>
+        <v>-1506.648873230908</v>
       </c>
       <c r="N6" t="n">
-        <v>83548.37906228082</v>
+        <v>83548.37906228079</v>
       </c>
       <c r="O6" t="n">
-        <v>83548.37906228076</v>
+        <v>83548.37906228084</v>
       </c>
       <c r="P6" t="n">
-        <v>83548.37906228079</v>
+        <v>83548.37906228084</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145279</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209662</v>
+        <v>11.08225210209571</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145279</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776502</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145279</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776502</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145279</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776502</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>158.172336097505</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>182.5659737324919</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>38.49409958308044</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>52.90454204080734</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.0670839124123</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>117.3098506095619</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.063927995795</v>
+        <v>52.77216054947189</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.744524524838198e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>5.798028723802418e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436989</v>
+        <v>4.336460094436992</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215282</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907822</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402217</v>
+        <v>368.051629940222</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377395</v>
+        <v>551.61398573774</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528656</v>
+        <v>684.3259263528662</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573094</v>
+        <v>761.44444855731</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006286</v>
+        <v>773.7654158006292</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365707</v>
+        <v>730.6447407365713</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551574</v>
+        <v>623.588382155158</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231327</v>
+        <v>468.2889050231331</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071777</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198297</v>
+        <v>98.81708440198305</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339793</v>
+        <v>18.98285406339794</v>
       </c>
       <c r="U2" t="n">
-        <v>0.346916807554959</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528245</v>
+        <v>2.320210700528247</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299648</v>
+        <v>22.40835071299649</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467862</v>
+        <v>79.88444736467869</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863111</v>
+        <v>219.2090293863113</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217036</v>
+        <v>374.6631463217038</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335561</v>
+        <v>503.7808365335565</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277049</v>
+        <v>587.8884744277053</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290545</v>
+        <v>603.4481330290549</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594549</v>
+        <v>552.0371485594553</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736787</v>
+        <v>443.0584801736791</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498862</v>
+        <v>296.1728606498864</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871836</v>
+        <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612603997</v>
+        <v>43.09689612604</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164282</v>
+        <v>9.352077341164291</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242267</v>
+        <v>0.1526454408242268</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94518671039397</v>
+        <v>1.945186710393972</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695731</v>
+        <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.4970694362114</v>
+        <v>58.49706943621145</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248537</v>
+        <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166812</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889363</v>
+        <v>289.1962132889365</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120293</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369247</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564132</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643761</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221714</v>
+        <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553248</v>
+        <v>87.46266790553256</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750218</v>
+        <v>33.8992993075022</v>
       </c>
       <c r="T4" t="n">
-        <v>8.31125230804696</v>
+        <v>8.311252308046967</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942167</v>
+        <v>0.1061010932942168</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O27" t="n">
-        <v>514.6953762540926</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135354</v>
+        <v>187.0057254135357</v>
       </c>
       <c r="K2" t="n">
-        <v>331.524134692759</v>
+        <v>331.5241346927594</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828784</v>
+        <v>448.559511382879</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300367</v>
+        <v>531.0982153300373</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040377</v>
+        <v>544.3523522040382</v>
       </c>
       <c r="O2" t="n">
-        <v>500.546529314884</v>
+        <v>500.5465293148845</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998879</v>
+        <v>392.3553863998885</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486832</v>
+        <v>245.9832151486836</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304561</v>
+        <v>56.81462359304584</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964444</v>
+        <v>92.37140271964461</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8217073473446</v>
+        <v>236.8217073473448</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536819</v>
+        <v>365.2264567536823</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056865</v>
+        <v>445.754440505687</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457212</v>
+        <v>472.1064209457217</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150104</v>
+        <v>409.4409041150109</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593485</v>
+        <v>337.0376277659686</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638647</v>
+        <v>156.1910865638649</v>
       </c>
       <c r="R3" t="n">
-        <v>27.95355500662307</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.1655203081809</v>
+        <v>44.16552030818102</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907983</v>
+        <v>203.7258368907985</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492524</v>
+        <v>316.7862385492526</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738699</v>
+        <v>344.5007355738701</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161533</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704529</v>
+        <v>299.5284276704531</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292696</v>
+        <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047706</v>
+        <v>76.7208184704772</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O27" t="n">
-        <v>372.0991318096482</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
